--- a/Lab1/simplex_test.xlsx
+++ b/Lab1/simplex_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITMO\3 course\МетОпт\МетОпт\ITMO_MetOptRep\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C97E654E-2A62-4FBB-8132-77E0F398B9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700144C1-9AFB-4912-BAC1-68275DC24D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1785" yWindow="375" windowWidth="21600" windowHeight="11385" xr2:uid="{2571D5FB-FCF1-4B39-8C7A-C4B971B3C309}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
